--- a/assignments/29Nov/output/Q6_CompanyData.xlsx
+++ b/assignments/29Nov/output/Q6_CompanyData.xlsx
@@ -16,16 +16,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
-    <x:t>Infosys Ltd</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> 1,991 </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> 1,358</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5.00</x:t>
+    <x:t>CompanyName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>High</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Low</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FaceValue</x:t>
   </x:si>
   <x:si>
     <x:t>Tata Consultancy Services Ltd</x:t>
@@ -34,7 +34,7 @@
     <x:t xml:space="preserve"> 4,592 </x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve"> 3,498</x:t>
+    <x:t xml:space="preserve"> 3,503</x:t>
   </x:si>
   <x:si>
     <x:t>1.00</x:t>
@@ -43,10 +43,10 @@
     <x:t>Wipro Ltd</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve"> 596 </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> 402</x:t>
+    <x:t xml:space="preserve"> 305 </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> 201</x:t>
   </x:si>
   <x:si>
     <x:t>2.00</x:t>
@@ -59,6 +59,117 @@
   </x:si>
   <x:si>
     <x:t xml:space="preserve"> 1,015</x:t>
+  </x:si>
+  <x:si>
+    <x:t>South Indian Bank Ltd</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> 36.9 </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> 22.3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Federal Bank Ltd</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> 214 </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> 139</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SpiceJet Ltd</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> 79.9 </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> 43.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10.0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sibar Auto Parts Ltd</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> 18.0 </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> 8.22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Firstsource Solutions Ltd</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> 391 </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> 172</x:t>
+  </x:si>
+  <x:si>
+    <x:t>United Polyfab Gujarat Ltd</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> 151 </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> 78.6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Visagar Polytex Ltd</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> 2.12 </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> 0.85</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IL&amp;FS Investment Managers Ltd</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> 18.4 </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> 8.36</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ICICI Bank Ltd</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> 1,362 </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> 970</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Indian Overseas Bank</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> 83.8 </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> 40.7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Canara Bank</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> 129 </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> 82.7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Manipal Finance Corporation Ltd</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> 6.61 </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> 5.00</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -415,17 +526,17 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="2" spans="1:4">
-      <x:c r="A2" s="0" t="s">
+    <x:row r="1" spans="1:4">
+      <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="B2" s="0" t="s">
+      <x:c r="B1" s="0" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C2" s="0" t="s">
+      <x:c r="C1" s="0" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="D2" s="0" t="s">
+      <x:c r="D1" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
@@ -445,30 +556,212 @@
     </x:row>
     <x:row r="4" spans="1:4">
       <x:c r="A4" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
       <x:c r="A5" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:4">
+      <x:c r="A6" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="B5" s="0" t="s">
+      <x:c r="B6" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="C5" s="0" t="s">
+      <x:c r="C6" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="D5" s="0" t="s">
+      <x:c r="D6" s="0" t="s">
         <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:4">
+      <x:c r="A7" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:4">
+      <x:c r="A8" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:4">
+      <x:c r="A9" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:4">
+      <x:c r="A10" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:4">
+      <x:c r="A11" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:4">
+      <x:c r="A12" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:4">
+      <x:c r="A13" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="D13" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:4">
+      <x:c r="A14" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D14" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:4">
+      <x:c r="A15" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="C15" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="D15" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:4">
+      <x:c r="A16" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="D16" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:4">
+      <x:c r="A17" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="C17" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="D17" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:4">
+      <x:c r="A18" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="B18" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="C18" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="D18" s="0" t="s">
+        <x:v>24</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
